--- a/datas/Gacha.xlsx
+++ b/datas/Gacha.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Gacha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gacha" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,54 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Permanent</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>常驻盲盒</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>20001</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Limited</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>动物系列限定</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>20002</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/datas/Gacha.xlsx
+++ b/datas/Gacha.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Gacha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Gacha" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,15 +444,10 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>cost_item</t>
+          <t>costs</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
-        <is>
-          <t>cost_count</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
         <is>
           <t>drop_id</t>
         </is>
@@ -481,15 +476,10 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>(list#sep=|),config.ItemCost</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
-        <is>
-          <t>int</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
         <is>
           <t>int</t>
         </is>
@@ -526,11 +516,6 @@
           <t>c;s</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>c;s</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -555,15 +540,10 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>消耗道具ID，引用 Item.id</t>
+          <t>消耗列表，格式: item_id,count|item_id,count</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
-        <is>
-          <t>消耗数量</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
         <is>
           <t>掉落包ID，引用 Drop.id</t>
         </is>
@@ -583,13 +563,12 @@
           <t>常驻盲盒</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>20001</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20001,1</t>
+        </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -607,13 +586,12 @@
           <t>动物系列限定</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v>20002</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>20002,1</t>
+        </is>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
         <v>101</v>
       </c>
     </row>
